--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/www.fonartelatino.com/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD1080-5C2D-634C-8D7E-086AADD860FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="2460" windowWidth="27645" windowHeight="11760"/>
+    <workbookView xWindow="100" yWindow="500" windowWidth="37740" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -3785,7 +3790,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3821,7 +3826,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3831,6 +3836,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3856,7 +3873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3869,11 +3886,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3963,26 +3990,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I245" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:I245"/>
-  <sortState ref="A2:I245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I245" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:I245" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I245">
     <sortCondition ref="I1:I245"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="VIDEO CODE" dataDxfId="3"/>
-    <tableColumn id="2" name="VIDEO UPC" dataDxfId="2"/>
-    <tableColumn id="3" name="VIDEO ISRC" dataDxfId="1"/>
-    <tableColumn id="4" name="Artist"/>
-    <tableColumn id="5" name="Live"/>
-    <tableColumn id="6" name="Lyric"/>
-    <tableColumn id="7" name="Video Oficial"/>
-    <tableColumn id="8" name="Link"/>
-    <tableColumn id="9" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VIDEO CODE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VIDEO UPC" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VIDEO ISRC" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Artist"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Live"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Lyric"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Video Oficial"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Link"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4277,34 +4307,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96:XFD96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>765</v>
       </c>
@@ -4333,1111 +4363,1111 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>771</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
         <v>790</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="15" t="s">
         <v>805</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="15" t="s">
         <v>807</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>834</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="15" t="s">
         <v>843</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="15" t="s">
         <v>845</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>846</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>848</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>852</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>854</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>856</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="15" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>858</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>860</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="15" t="s">
         <v>566</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>862</v>
       </c>
@@ -5460,7 +5490,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>864</v>
       </c>
@@ -5483,7 +5513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>866</v>
       </c>
@@ -5506,7 +5536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>868</v>
       </c>
@@ -5529,7 +5559,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>870</v>
       </c>
@@ -5552,7 +5582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>872</v>
       </c>
@@ -5575,7 +5605,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>874</v>
       </c>
@@ -5598,7 +5628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>876</v>
       </c>
@@ -5621,7 +5651,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>878</v>
       </c>
@@ -5644,7 +5674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>880</v>
       </c>
@@ -5667,7 +5697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>882</v>
       </c>
@@ -5690,7 +5720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>884</v>
       </c>
@@ -5713,7 +5743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>886</v>
       </c>
@@ -5736,7 +5766,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>888</v>
       </c>
@@ -5759,7 +5789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>890</v>
       </c>
@@ -5782,7 +5812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>892</v>
       </c>
@@ -5805,7 +5835,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>894</v>
       </c>
@@ -5828,7 +5858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>896</v>
       </c>
@@ -5851,7 +5881,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>898</v>
       </c>
@@ -5874,76 +5904,76 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="15" t="s">
         <v>901</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="16">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="15" t="s">
         <v>903</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="15" t="s">
         <v>587</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="15" t="s">
         <v>905</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="16">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>906</v>
       </c>
@@ -5966,30 +5996,30 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="16">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>910</v>
       </c>
@@ -6012,30 +6042,30 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="16">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>914</v>
       </c>
@@ -6058,467 +6088,467 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="15" t="s">
         <v>917</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="15" t="s">
         <v>594</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="16">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
         <v>918</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="16">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="15" t="s">
         <v>921</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="15" t="s">
         <v>596</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="16">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="16">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
         <v>924</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="16">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="15" t="s">
         <v>927</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="16">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="15" t="s">
         <v>929</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="16">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="16">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="16">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="15" t="s">
         <v>935</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="16">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="16">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="15" t="s">
         <v>939</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="16">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="15" t="s">
         <v>941</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="16">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="15" t="s">
         <v>943</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="16">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="15" t="s">
         <v>945</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="15" t="s">
         <v>608</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="16">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
         <v>946</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="15" t="s">
         <v>947</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="15" t="s">
         <v>609</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="16">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
         <v>948</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="16">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
         <v>950</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="15" t="s">
         <v>951</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="16">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
         <v>952</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="15" t="s">
         <v>953</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="16">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
         <v>954</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="15" t="s">
         <v>955</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="15" t="s">
         <v>613</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="16">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>956</v>
       </c>
@@ -6541,7 +6571,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>958</v>
       </c>
@@ -6564,7 +6594,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>960</v>
       </c>
@@ -6587,7 +6617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>962</v>
       </c>
@@ -6610,7 +6640,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>964</v>
       </c>
@@ -6633,306 +6663,306 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="15" t="s">
         <v>967</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="15" t="s">
         <v>619</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="7" t="s">
+      <c r="G102" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H102" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="16">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+    <row r="103" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>969</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H103" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="I103" s="8">
+      <c r="I103" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="15" t="s">
         <v>971</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H104" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="16">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
         <v>972</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="15" t="s">
         <v>973</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H105" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="I105" s="7">
+      <c r="I105" s="16">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
         <v>974</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="15" t="s">
         <v>975</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="15" t="s">
         <v>623</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H106" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I106" s="7">
+      <c r="I106" s="16">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
+    <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>976</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>977</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H107" s="8" t="s">
+      <c r="H107" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I107" s="8">
+      <c r="I107" s="10">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
         <v>978</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="15" t="s">
         <v>979</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H108" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I108" s="7">
+      <c r="I108" s="16">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
+    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="9" t="s">
         <v>981</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I109" s="8">
+      <c r="I109" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="14" t="s">
         <v>982</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H110" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I110" s="7">
+      <c r="I110" s="16">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
+    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="9" t="s">
         <v>985</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H111" s="8" t="s">
+      <c r="H111" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="I111" s="8">
+      <c r="I111" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="15" t="s">
         <v>987</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="H112" s="7" t="s">
+      <c r="H112" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="I112" s="7">
+      <c r="I112" s="16">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="15" t="s">
         <v>989</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H113" s="7" t="s">
+      <c r="H113" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I113" s="7">
+      <c r="I113" s="16">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="9" t="s">
+    <row r="114" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H114" s="8" t="s">
+      <c r="H114" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I114" s="8">
+      <c r="I114" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
         <v>992</v>
       </c>
@@ -6955,7 +6985,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
         <v>994</v>
       </c>
@@ -6978,7 +7008,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
         <v>996</v>
       </c>
@@ -7001,7 +7031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
         <v>998</v>
       </c>
@@ -7024,7 +7054,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
         <v>1000</v>
       </c>
@@ -7047,7 +7077,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
         <v>1002</v>
       </c>
@@ -7070,7 +7100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
         <v>1004</v>
       </c>
@@ -7093,7 +7123,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
         <v>1006</v>
       </c>
@@ -7116,7 +7146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
         <v>1008</v>
       </c>
@@ -7139,7 +7169,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
         <v>1010</v>
       </c>
@@ -7162,7 +7192,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
         <v>1012</v>
       </c>
@@ -7185,7 +7215,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
         <v>1014</v>
       </c>
@@ -7208,7 +7238,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
         <v>1016</v>
       </c>
@@ -7231,7 +7261,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>1018</v>
       </c>
@@ -7254,7 +7284,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>1020</v>
       </c>
@@ -7277,7 +7307,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>1022</v>
       </c>
@@ -7300,7 +7330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>1024</v>
       </c>
@@ -7323,7 +7353,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>1026</v>
       </c>
@@ -7346,7 +7376,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
         <v>1028</v>
       </c>
@@ -7369,7 +7399,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
         <v>1030</v>
       </c>
@@ -7392,7 +7422,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
         <v>1032</v>
       </c>
@@ -7415,7 +7445,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
         <v>1034</v>
       </c>
@@ -7438,7 +7468,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
         <v>1036</v>
       </c>
@@ -7461,7 +7491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
         <v>1038</v>
       </c>
@@ -7484,7 +7514,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
         <v>1040</v>
       </c>
@@ -7507,7 +7537,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
         <v>1042</v>
       </c>
@@ -7530,7 +7560,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
         <v>1044</v>
       </c>
@@ -7553,7 +7583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
         <v>1046</v>
       </c>
@@ -7576,7 +7606,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
         <v>1048</v>
       </c>
@@ -7599,7 +7629,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
         <v>1050</v>
       </c>
@@ -7622,7 +7652,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
         <v>1052</v>
       </c>
@@ -7645,7 +7675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
         <v>1054</v>
       </c>
@@ -7668,7 +7698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
         <v>1056</v>
       </c>
@@ -7691,7 +7721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
         <v>1058</v>
       </c>
@@ -7714,7 +7744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
         <v>1060</v>
       </c>
@@ -7737,7 +7767,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4" t="s">
         <v>1062</v>
       </c>
@@ -7760,7 +7790,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
         <v>1064</v>
       </c>
@@ -7783,7 +7813,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
         <v>1066</v>
       </c>
@@ -7806,7 +7836,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
         <v>1068</v>
       </c>
@@ -7829,7 +7859,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
         <v>1070</v>
       </c>
@@ -7852,7 +7882,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
         <v>1072</v>
       </c>
@@ -7875,7 +7905,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
         <v>1074</v>
       </c>
@@ -7898,7 +7928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
         <v>1076</v>
       </c>
@@ -7921,7 +7951,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
         <v>1078</v>
       </c>
@@ -7944,7 +7974,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4" t="s">
         <v>1080</v>
       </c>
@@ -7967,7 +7997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
         <v>1082</v>
       </c>
@@ -7990,7 +8020,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4" t="s">
         <v>1084</v>
       </c>
@@ -8013,7 +8043,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
         <v>1086</v>
       </c>
@@ -8036,7 +8066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
         <v>1088</v>
       </c>
@@ -8059,7 +8089,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
         <v>1090</v>
       </c>
@@ -8082,7 +8112,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
         <v>1092</v>
       </c>
@@ -8105,7 +8135,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
         <v>1094</v>
       </c>
@@ -8128,7 +8158,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
         <v>1096</v>
       </c>
@@ -8151,7 +8181,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4" t="s">
         <v>1098</v>
       </c>
@@ -8174,7 +8204,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
         <v>1100</v>
       </c>
@@ -8197,7 +8227,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
         <v>1102</v>
       </c>
@@ -8220,7 +8250,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
         <v>1104</v>
       </c>
@@ -8243,7 +8273,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
         <v>1106</v>
       </c>
@@ -8266,7 +8296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
         <v>1108</v>
       </c>
@@ -8289,7 +8319,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4" t="s">
         <v>1110</v>
       </c>
@@ -8312,7 +8342,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4" t="s">
         <v>1112</v>
       </c>
@@ -8335,7 +8365,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4" t="s">
         <v>1114</v>
       </c>
@@ -8358,7 +8388,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>1116</v>
       </c>
@@ -8381,7 +8411,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4" t="s">
         <v>1118</v>
       </c>
@@ -8404,7 +8434,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>1120</v>
       </c>
@@ -8427,7 +8457,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>1122</v>
       </c>
@@ -8450,7 +8480,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4" t="s">
         <v>1124</v>
       </c>
@@ -8473,7 +8503,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4" t="s">
         <v>1126</v>
       </c>
@@ -8496,7 +8526,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
         <v>1128</v>
       </c>
@@ -8519,7 +8549,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
         <v>1130</v>
       </c>
@@ -8542,7 +8572,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
         <v>1132</v>
       </c>
@@ -8565,7 +8595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
         <v>1134</v>
       </c>
@@ -8588,7 +8618,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
         <v>1136</v>
       </c>
@@ -8611,7 +8641,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
         <v>1138</v>
       </c>
@@ -8634,7 +8664,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
         <v>1140</v>
       </c>
@@ -8657,7 +8687,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
         <v>1142</v>
       </c>
@@ -8680,7 +8710,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
         <v>1144</v>
       </c>
@@ -8703,7 +8733,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
         <v>1146</v>
       </c>
@@ -8726,7 +8756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
         <v>1148</v>
       </c>
@@ -8749,7 +8779,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
         <v>1150</v>
       </c>
@@ -8772,7 +8802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4" t="s">
         <v>1152</v>
       </c>
@@ -8795,7 +8825,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
         <v>1154</v>
       </c>
@@ -8818,7 +8848,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4" t="s">
         <v>1156</v>
       </c>
@@ -8841,7 +8871,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4" t="s">
         <v>1158</v>
       </c>
@@ -8864,7 +8894,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4" t="s">
         <v>1160</v>
       </c>
@@ -8887,7 +8917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4" t="s">
         <v>1162</v>
       </c>
@@ -8910,7 +8940,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4" t="s">
         <v>1164</v>
       </c>
@@ -8933,7 +8963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4" t="s">
         <v>1166</v>
       </c>
@@ -8956,7 +8986,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4" t="s">
         <v>1168</v>
       </c>
@@ -8979,7 +9009,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4" t="s">
         <v>1170</v>
       </c>
@@ -9002,7 +9032,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
         <v>1172</v>
       </c>
@@ -9025,7 +9055,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4" t="s">
         <v>1174</v>
       </c>
@@ -9048,7 +9078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4" t="s">
         <v>1176</v>
       </c>
@@ -9071,7 +9101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4" t="s">
         <v>1178</v>
       </c>
@@ -9094,7 +9124,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4" t="s">
         <v>1180</v>
       </c>
@@ -9117,7 +9147,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4" t="s">
         <v>1182</v>
       </c>
@@ -9140,7 +9170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
         <v>1184</v>
       </c>
@@ -9163,7 +9193,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
         <v>1186</v>
       </c>
@@ -9186,7 +9216,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
         <v>1188</v>
       </c>
@@ -9209,7 +9239,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
         <v>1190</v>
       </c>
@@ -9232,7 +9262,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4" t="s">
         <v>1192</v>
       </c>
@@ -9255,7 +9285,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4" t="s">
         <v>1194</v>
       </c>
@@ -9278,7 +9308,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4" t="s">
         <v>1196</v>
       </c>
@@ -9301,7 +9331,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4" t="s">
         <v>1198</v>
       </c>
@@ -9324,7 +9354,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4" t="s">
         <v>1200</v>
       </c>
@@ -9347,7 +9377,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4" t="s">
         <v>1202</v>
       </c>
@@ -9370,7 +9400,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4" t="s">
         <v>1204</v>
       </c>
@@ -9393,7 +9423,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4" t="s">
         <v>1206</v>
       </c>
@@ -9416,7 +9446,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
         <v>1208</v>
       </c>
@@ -9439,7 +9469,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
         <v>1210</v>
       </c>
@@ -9462,7 +9492,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4" t="s">
         <v>1212</v>
       </c>
@@ -9485,7 +9515,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4" t="s">
         <v>1214</v>
       </c>
@@ -9508,7 +9538,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4" t="s">
         <v>1216</v>
       </c>
@@ -9531,7 +9561,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4" t="s">
         <v>1218</v>
       </c>
@@ -9554,7 +9584,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4" t="s">
         <v>1220</v>
       </c>
@@ -9577,7 +9607,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4" t="s">
         <v>1222</v>
       </c>
@@ -9600,7 +9630,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
         <v>1224</v>
       </c>
@@ -9623,7 +9653,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4" t="s">
         <v>1226</v>
       </c>
@@ -9646,7 +9676,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4" t="s">
         <v>1228</v>
       </c>
@@ -9669,7 +9699,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4" t="s">
         <v>1230</v>
       </c>
@@ -9692,7 +9722,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4" t="s">
         <v>1232</v>
       </c>
@@ -9715,7 +9745,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4" t="s">
         <v>1234</v>
       </c>
@@ -9738,7 +9768,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4" t="s">
         <v>1236</v>
       </c>
@@ -9761,7 +9791,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4" t="s">
         <v>1238</v>
       </c>
@@ -9784,7 +9814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
         <v>1240</v>
       </c>
@@ -9807,7 +9837,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4" t="s">
         <v>1242</v>
       </c>
@@ -9830,7 +9860,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4" t="s">
         <v>1244</v>
       </c>
@@ -9853,7 +9883,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4" t="s">
         <v>1246</v>
       </c>
@@ -9876,7 +9906,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
         <v>1248</v>
       </c>
@@ -9899,7 +9929,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
         <v>1250</v>
       </c>
@@ -9922,7 +9952,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
         <v>1252</v>
       </c>
@@ -9945,12 +9975,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
     </row>

--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/www.fonartelatino.com/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD1080-5C2D-634C-8D7E-086AADD860FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="500" windowWidth="37740" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="495" windowWidth="36000" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -412,9 +406,6 @@
     <t>https://www.youtube.com/watch?v=JVHWBgyD-P8</t>
   </si>
   <si>
-    <t>Aunque te vayas de mi</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=K96-6gQ8QFY</t>
   </si>
   <si>
@@ -3785,12 +3776,15 @@
   </si>
   <si>
     <t>Columna1</t>
+  </si>
+  <si>
+    <t>Aunque te vayas de mi -  Audio Mono</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3998,21 +3992,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:I245" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A1:I245" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I245">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:I245" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:I245"/>
+  <sortState ref="A2:I245">
     <sortCondition ref="I1:I245"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="VIDEO CODE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="VIDEO UPC" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="VIDEO ISRC" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Artist"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Live"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Lyric"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Video Oficial"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Link"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" name="VIDEO CODE" dataDxfId="3"/>
+    <tableColumn id="2" name="VIDEO UPC" dataDxfId="2"/>
+    <tableColumn id="3" name="VIDEO ISRC" dataDxfId="1"/>
+    <tableColumn id="4" name="Artist"/>
+    <tableColumn id="5" name="Live"/>
+    <tableColumn id="6" name="Lyric"/>
+    <tableColumn id="7" name="Video Oficial"/>
+    <tableColumn id="8" name="Link"/>
+    <tableColumn id="9" name="Columna1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4307,45 +4301,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:XFD119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="43.625" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>18</v>
@@ -4357,1654 +4351,1654 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>767</v>
-      </c>
       <c r="C2" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D2" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>388</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>389</v>
       </c>
       <c r="I2" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>769</v>
-      </c>
       <c r="C3" s="15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I3" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>771</v>
-      </c>
       <c r="C4" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>392</v>
       </c>
       <c r="I4" s="16">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>773</v>
-      </c>
       <c r="C5" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D5" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>394</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>395</v>
       </c>
       <c r="I5" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>775</v>
-      </c>
       <c r="C6" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>348</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>349</v>
       </c>
       <c r="I6" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>777</v>
-      </c>
       <c r="C7" s="15" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I7" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="I8" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="B9" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="D9" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="I8" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>780</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="I9" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="B10" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>496</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="I9" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>782</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>497</v>
       </c>
       <c r="I10" s="13">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>784</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="I11" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>785</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="B12" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="I11" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>786</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="H12" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="I12" s="16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="B13" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="D13" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="I12" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="I13" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="B14" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D14" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="I13" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>790</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="H14" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="I14" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="B15" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="D15" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="I14" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="I15" s="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="B16" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D16" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="I15" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="H16" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="I16" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>795</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="B17" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="D17" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="I16" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>796</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="I17" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="B18" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D18" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="I17" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="H18" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="I18" s="16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="D19" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="I18" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="B19" s="12" t="s">
+      <c r="H19" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="I19" s="16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>515</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="D20" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="I19" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>802</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="H20" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I20" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="B21" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="I20" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>805</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>538</v>
-      </c>
       <c r="D21" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>352</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>353</v>
       </c>
       <c r="I21" s="16">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>807</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D22" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="H22" s="16" t="s">
         <v>355</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>356</v>
       </c>
       <c r="I22" s="16">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>809</v>
-      </c>
       <c r="C23" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>357</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>358</v>
       </c>
       <c r="I23" s="16">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>811</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="I24" s="16">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>813</v>
-      </c>
       <c r="C25" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I25" s="16">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>815</v>
-      </c>
       <c r="C26" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F26" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>376</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>377</v>
       </c>
       <c r="I26" s="16">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>817</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D27" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>310</v>
-      </c>
       <c r="H27" s="16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I27" s="16">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>819</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I28" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>821</v>
-      </c>
       <c r="C29" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="H29" s="16" t="s">
         <v>398</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>399</v>
       </c>
       <c r="I29" s="16">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>823</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G30" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>490</v>
-      </c>
-      <c r="H30" s="16" t="s">
-        <v>491</v>
       </c>
       <c r="I30" s="16">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>824</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>825</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I31" s="16">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>827</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H32" s="16" t="s">
         <v>402</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>403</v>
       </c>
       <c r="I32" s="16">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>829</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F33" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H33" s="16" t="s">
         <v>404</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>405</v>
       </c>
       <c r="I33" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>831</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F34" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="H34" s="16" t="s">
         <v>408</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>409</v>
       </c>
       <c r="I34" s="16">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="B35" s="15" t="s">
-        <v>833</v>
-      </c>
       <c r="C35" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>411</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>412</v>
       </c>
       <c r="I35" s="16">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="B36" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="C36" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F36" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="H36" s="16" t="s">
         <v>415</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>416</v>
       </c>
       <c r="I36" s="16">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>837</v>
-      </c>
       <c r="C37" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I37" s="16">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>839</v>
-      </c>
       <c r="C38" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I38" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>841</v>
-      </c>
       <c r="C39" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="H39" s="16" t="s">
         <v>419</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>420</v>
       </c>
       <c r="I39" s="16">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>842</v>
       </c>
-      <c r="B40" s="15" t="s">
-        <v>843</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E40" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="H40" s="16" t="s">
         <v>421</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>422</v>
       </c>
       <c r="I40" s="16">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>845</v>
-      </c>
       <c r="C41" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I41" s="16">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
+        <v>845</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>846</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>847</v>
-      </c>
       <c r="C42" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E42" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>425</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>426</v>
       </c>
       <c r="I42" s="16">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>849</v>
-      </c>
       <c r="C43" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E43" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="H43" s="16" t="s">
         <v>427</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>428</v>
       </c>
       <c r="I43" s="16">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>850</v>
       </c>
-      <c r="B44" s="15" t="s">
-        <v>851</v>
-      </c>
       <c r="C44" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E44" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="H44" s="16" t="s">
         <v>429</v>
-      </c>
-      <c r="H44" s="16" t="s">
-        <v>430</v>
       </c>
       <c r="I44" s="16">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>852</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>853</v>
-      </c>
       <c r="C45" s="15" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E45" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="H45" s="16" t="s">
         <v>432</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="I45" s="16">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>854</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>855</v>
-      </c>
       <c r="C46" s="15" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>434</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>435</v>
       </c>
       <c r="I46" s="16">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>856</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>857</v>
-      </c>
       <c r="C47" s="15" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I47" s="16">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>858</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>859</v>
-      </c>
       <c r="C48" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="H48" s="16" t="s">
         <v>438</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>439</v>
       </c>
       <c r="I48" s="16">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>860</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>861</v>
-      </c>
       <c r="C49" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I49" s="16">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>863</v>
-      </c>
       <c r="C50" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D50" t="s">
+        <v>442</v>
+      </c>
+      <c r="G50" t="s">
         <v>443</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>444</v>
-      </c>
-      <c r="H50" t="s">
-        <v>445</v>
       </c>
       <c r="I50" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>865</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D51" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I51" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>867</v>
-      </c>
       <c r="C52" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D52" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G52" t="s">
+        <v>447</v>
+      </c>
+      <c r="H52" t="s">
         <v>448</v>
-      </c>
-      <c r="H52" t="s">
-        <v>449</v>
       </c>
       <c r="I52" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>869</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G53" t="s">
+        <v>449</v>
+      </c>
+      <c r="H53" t="s">
         <v>450</v>
-      </c>
-      <c r="H53" t="s">
-        <v>451</v>
       </c>
       <c r="I53" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>869</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>871</v>
-      </c>
       <c r="C54" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G54" t="s">
+        <v>451</v>
+      </c>
+      <c r="H54" t="s">
         <v>452</v>
-      </c>
-      <c r="H54" t="s">
-        <v>453</v>
       </c>
       <c r="I54" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>873</v>
-      </c>
       <c r="C55" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G55" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H55" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I55" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>873</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>875</v>
-      </c>
       <c r="C56" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D56" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G56" t="s">
+        <v>455</v>
+      </c>
+      <c r="H56" t="s">
         <v>456</v>
-      </c>
-      <c r="H56" t="s">
-        <v>457</v>
       </c>
       <c r="I56" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>877</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G57" t="s">
+        <v>457</v>
+      </c>
+      <c r="H57" t="s">
         <v>458</v>
-      </c>
-      <c r="H57" t="s">
-        <v>459</v>
       </c>
       <c r="I57" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>879</v>
-      </c>
       <c r="C58" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G58" t="s">
+        <v>459</v>
+      </c>
+      <c r="H58" t="s">
         <v>460</v>
-      </c>
-      <c r="H58" t="s">
-        <v>461</v>
       </c>
       <c r="I58" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>880</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>881</v>
-      </c>
       <c r="C59" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G59" t="s">
+        <v>461</v>
+      </c>
+      <c r="H59" t="s">
         <v>462</v>
-      </c>
-      <c r="H59" t="s">
-        <v>463</v>
       </c>
       <c r="I59" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>882</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>883</v>
-      </c>
       <c r="C60" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D60" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G60" t="s">
+        <v>463</v>
+      </c>
+      <c r="H60" t="s">
         <v>464</v>
-      </c>
-      <c r="H60" t="s">
-        <v>465</v>
       </c>
       <c r="I60" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>884</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>885</v>
-      </c>
       <c r="C61" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G61" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I61" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>885</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>886</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>887</v>
-      </c>
       <c r="C62" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G62" t="s">
+        <v>466</v>
+      </c>
+      <c r="H62" t="s">
         <v>467</v>
-      </c>
-      <c r="H62" t="s">
-        <v>468</v>
       </c>
       <c r="I62" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>889</v>
-      </c>
       <c r="C63" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D63" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G63" t="s">
+        <v>469</v>
+      </c>
+      <c r="H63" t="s">
         <v>470</v>
-      </c>
-      <c r="H63" t="s">
-        <v>471</v>
       </c>
       <c r="I63" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>891</v>
-      </c>
       <c r="C64" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I64" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>893</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="I65" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>894</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>895</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="I66" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>897</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I67" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>899</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F68" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="I68" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B69" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>901</v>
-      </c>
       <c r="C69" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I69" s="16">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="B70" s="15" t="s">
         <v>902</v>
       </c>
-      <c r="B70" s="15" t="s">
-        <v>903</v>
-      </c>
       <c r="C70" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I70" s="16">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="B71" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>905</v>
-      </c>
       <c r="C71" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F71" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="H71" s="16" t="s">
         <v>485</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>486</v>
       </c>
       <c r="I71" s="16">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>907</v>
-      </c>
       <c r="C72" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D72" t="s">
         <v>52</v>
       </c>
       <c r="G72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I72" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>908</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>909</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>52</v>
@@ -6019,15 +6013,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>911</v>
-      </c>
       <c r="C74" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D74" t="s">
         <v>52</v>
@@ -6042,15 +6036,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>912</v>
       </c>
-      <c r="B75" s="15" t="s">
-        <v>913</v>
-      </c>
       <c r="C75" s="15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>52</v>
@@ -6065,15 +6059,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>915</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D76" t="s">
         <v>52</v>
@@ -6088,15 +6082,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="B77" s="15" t="s">
         <v>916</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>917</v>
-      </c>
       <c r="C77" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>52</v>
@@ -6111,15 +6105,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="B78" s="15" t="s">
         <v>918</v>
       </c>
-      <c r="B78" s="15" t="s">
-        <v>919</v>
-      </c>
       <c r="C78" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D78" s="16" t="s">
         <v>52</v>
@@ -6134,15 +6128,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>920</v>
       </c>
-      <c r="B79" s="15" t="s">
-        <v>921</v>
-      </c>
       <c r="C79" s="15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D79" s="16" t="s">
         <v>52</v>
@@ -6157,15 +6151,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="B80" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="B80" s="15" t="s">
-        <v>923</v>
-      </c>
       <c r="C80" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D80" s="16" t="s">
         <v>52</v>
@@ -6180,15 +6174,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="B81" s="15" t="s">
         <v>924</v>
       </c>
-      <c r="B81" s="15" t="s">
-        <v>925</v>
-      </c>
       <c r="C81" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D81" s="16" t="s">
         <v>52</v>
@@ -6203,15 +6197,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="B82" s="15" t="s">
         <v>926</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>927</v>
-      </c>
       <c r="C82" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D82" s="16" t="s">
         <v>52</v>
@@ -6226,15 +6220,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>928</v>
       </c>
-      <c r="B83" s="15" t="s">
-        <v>929</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D83" s="16" t="s">
         <v>52</v>
@@ -6249,15 +6243,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="B84" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="B84" s="15" t="s">
-        <v>931</v>
-      </c>
       <c r="C84" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>52</v>
@@ -6272,15 +6266,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="B85" s="15" t="s">
         <v>932</v>
       </c>
-      <c r="B85" s="15" t="s">
-        <v>933</v>
-      </c>
       <c r="C85" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D85" s="16" t="s">
         <v>52</v>
@@ -6295,15 +6289,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="B86" s="15" t="s">
         <v>934</v>
       </c>
-      <c r="B86" s="15" t="s">
-        <v>935</v>
-      </c>
       <c r="C86" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D86" s="16" t="s">
         <v>52</v>
@@ -6318,15 +6312,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B87" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="B87" s="15" t="s">
-        <v>937</v>
-      </c>
       <c r="C87" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D87" s="16" t="s">
         <v>52</v>
@@ -6341,15 +6335,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="B88" s="15" t="s">
         <v>938</v>
       </c>
-      <c r="B88" s="15" t="s">
-        <v>939</v>
-      </c>
       <c r="C88" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>52</v>
@@ -6364,15 +6358,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="B89" s="15" t="s">
         <v>940</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>941</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>52</v>
@@ -6387,15 +6381,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="B90" s="15" t="s">
         <v>942</v>
       </c>
-      <c r="B90" s="15" t="s">
-        <v>943</v>
-      </c>
       <c r="C90" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>52</v>
@@ -6410,15 +6404,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="B91" s="15" t="s">
         <v>944</v>
       </c>
-      <c r="B91" s="15" t="s">
-        <v>945</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>52</v>
@@ -6433,15 +6427,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="B92" s="15" t="s">
         <v>946</v>
       </c>
-      <c r="B92" s="15" t="s">
-        <v>947</v>
-      </c>
       <c r="C92" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D92" s="16" t="s">
         <v>52</v>
@@ -6456,15 +6450,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
+        <v>947</v>
+      </c>
+      <c r="B93" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="B93" s="15" t="s">
-        <v>949</v>
-      </c>
       <c r="C93" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D93" s="16" t="s">
         <v>52</v>
@@ -6479,15 +6473,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="B94" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="B94" s="15" t="s">
-        <v>951</v>
-      </c>
       <c r="C94" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>52</v>
@@ -6502,15 +6496,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
+        <v>951</v>
+      </c>
+      <c r="B95" s="15" t="s">
         <v>952</v>
       </c>
-      <c r="B95" s="15" t="s">
-        <v>953</v>
-      </c>
       <c r="C95" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>52</v>
@@ -6525,15 +6519,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B96" s="15" t="s">
         <v>954</v>
       </c>
-      <c r="B96" s="15" t="s">
-        <v>955</v>
-      </c>
       <c r="C96" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D96" s="16" t="s">
         <v>52</v>
@@ -6548,130 +6542,130 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14" t="s">
+        <v>955</v>
+      </c>
+      <c r="B97" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="C97" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I97" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>957</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="B98" s="15" t="s">
+        <v>958</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I98" s="16">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>959</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>960</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I99" s="16">
         <v>98</v>
       </c>
-      <c r="H97" t="s">
+    </row>
+    <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>962</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I100" s="16">
         <v>99</v>
       </c>
-      <c r="I97" s="7">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="D98" t="s">
+    </row>
+    <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>964</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E98" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" t="s">
+      <c r="E101" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I101" s="16">
         <v>100</v>
       </c>
-      <c r="I98" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="D99" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" t="s">
-        <v>101</v>
-      </c>
-      <c r="I99" s="7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="D100" t="s">
-        <v>52</v>
-      </c>
-      <c r="E100" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" t="s">
-        <v>102</v>
-      </c>
-      <c r="I100" s="7">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>964</v>
-      </c>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="B102" s="15" t="s">
+        <v>966</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>618</v>
-      </c>
-      <c r="D101" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" t="s">
-        <v>104</v>
-      </c>
-      <c r="I101" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="14" t="s">
-        <v>966</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>967</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>619</v>
       </c>
       <c r="D102" s="16" t="s">
         <v>52</v>
@@ -6686,15 +6680,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>968</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>969</v>
-      </c>
       <c r="C103" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D103" s="10" t="s">
         <v>52</v>
@@ -6709,15 +6703,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="B104" s="15" t="s">
         <v>970</v>
       </c>
-      <c r="B104" s="15" t="s">
-        <v>971</v>
-      </c>
       <c r="C104" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>52</v>
@@ -6732,15 +6726,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B105" s="15" t="s">
         <v>972</v>
       </c>
-      <c r="B105" s="15" t="s">
-        <v>973</v>
-      </c>
       <c r="C105" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D105" s="16" t="s">
         <v>52</v>
@@ -6755,15 +6749,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B106" s="15" t="s">
         <v>974</v>
       </c>
-      <c r="B106" s="15" t="s">
-        <v>975</v>
-      </c>
       <c r="C106" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>52</v>
@@ -6778,15 +6772,15 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
+        <v>975</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>976</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>977</v>
-      </c>
       <c r="C107" s="9" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D107" s="10" t="s">
         <v>52</v>
@@ -6801,15 +6795,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="B108" s="15" t="s">
         <v>978</v>
       </c>
-      <c r="B108" s="15" t="s">
-        <v>979</v>
-      </c>
       <c r="C108" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D108" s="16" t="s">
         <v>52</v>
@@ -6824,15 +6818,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>980</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>981</v>
-      </c>
       <c r="C109" s="9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>52</v>
@@ -6847,15 +6841,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="B110" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="B110" s="15" t="s">
-        <v>983</v>
-      </c>
       <c r="C110" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D110" s="16" t="s">
         <v>52</v>
@@ -6870,15 +6864,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>984</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>985</v>
-      </c>
       <c r="C111" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>52</v>
@@ -6893,15 +6887,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="B112" s="15" t="s">
-        <v>987</v>
-      </c>
       <c r="C112" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D112" s="16" t="s">
         <v>52</v>
@@ -6916,15 +6910,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="B113" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>989</v>
-      </c>
       <c r="C113" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>52</v>
@@ -6939,15 +6933,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>991</v>
-      </c>
       <c r="C114" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>52</v>
@@ -6962,130 +6956,130 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>993</v>
-      </c>
       <c r="C115" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D115" t="s">
         <v>52</v>
       </c>
       <c r="G115" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H115" t="s">
         <v>130</v>
-      </c>
-      <c r="H115" t="s">
-        <v>131</v>
       </c>
       <c r="I115" s="7">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="C116" s="9" t="s">
+        <v>632</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I116" s="10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="B117" s="15" t="s">
+        <v>996</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D116" t="s">
-        <v>52</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
-      <c r="H116" t="s">
-        <v>135</v>
-      </c>
-      <c r="I116" s="7">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>996</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="D117" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" s="16">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14" t="s">
         <v>997</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="B118" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>634</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G117" t="s">
-        <v>2</v>
-      </c>
-      <c r="H117" t="s">
-        <v>0</v>
-      </c>
-      <c r="I117" s="7">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>998</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="G118" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H118" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="I118" s="16">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
         <v>999</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="B119" s="15" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>635</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
-        <v>5</v>
-      </c>
-      <c r="H118" t="s">
-        <v>6</v>
-      </c>
-      <c r="I118" s="7">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="G119" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I119" s="16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>1001</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="B120" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1</v>
-      </c>
-      <c r="G119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H119" t="s">
-        <v>8</v>
-      </c>
-      <c r="I119" s="7">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -7100,15 +7094,15 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>1005</v>
-      </c>
       <c r="C121" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -7123,15 +7117,15 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>1007</v>
-      </c>
       <c r="C122" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -7146,15 +7140,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>1009</v>
-      </c>
       <c r="C123" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -7169,15 +7163,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>1010</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>1011</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7192,15 +7186,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>1013</v>
-      </c>
       <c r="C125" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -7215,15 +7209,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>1015</v>
-      </c>
       <c r="C126" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7238,15 +7232,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>1017</v>
-      </c>
       <c r="C127" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7261,15 +7255,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>1018</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>1019</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7284,15 +7278,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>1021</v>
-      </c>
       <c r="C129" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -7307,15 +7301,15 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>1023</v>
-      </c>
       <c r="C130" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7330,15 +7324,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>1024</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>1025</v>
-      </c>
       <c r="C131" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -7353,15 +7347,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>1026</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>1027</v>
-      </c>
       <c r="C132" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7376,15 +7370,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>1029</v>
-      </c>
       <c r="C133" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -7399,15 +7393,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>1031</v>
-      </c>
       <c r="C134" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -7422,15 +7416,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>1033</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -7445,15 +7439,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>1035</v>
-      </c>
       <c r="C136" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -7468,15 +7462,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>1037</v>
-      </c>
       <c r="C137" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -7491,15 +7485,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>1039</v>
-      </c>
       <c r="C138" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -7514,15 +7508,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>1041</v>
-      </c>
       <c r="C139" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -7537,15 +7531,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>1042</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>1043</v>
-      </c>
       <c r="C140" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -7560,15 +7554,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>1045</v>
-      </c>
       <c r="C141" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -7583,2404 +7577,2404 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>1047</v>
-      </c>
       <c r="C142" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D142" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F142" t="s">
+        <v>223</v>
+      </c>
+      <c r="H142" t="s">
         <v>224</v>
-      </c>
-      <c r="H142" t="s">
-        <v>225</v>
       </c>
       <c r="I142" s="7">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>1049</v>
-      </c>
       <c r="C143" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D143" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F143" t="s">
+        <v>221</v>
+      </c>
+      <c r="H143" t="s">
         <v>222</v>
-      </c>
-      <c r="H143" t="s">
-        <v>223</v>
       </c>
       <c r="I143" s="7">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>1051</v>
-      </c>
       <c r="C144" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D144" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F144" t="s">
+        <v>131</v>
+      </c>
+      <c r="H144" t="s">
         <v>132</v>
-      </c>
-      <c r="H144" t="s">
-        <v>133</v>
       </c>
       <c r="I144" s="7">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>1053</v>
-      </c>
       <c r="C145" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G145" t="s">
+        <v>219</v>
+      </c>
+      <c r="H145" t="s">
         <v>220</v>
-      </c>
-      <c r="H145" t="s">
-        <v>221</v>
       </c>
       <c r="I145" s="7">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>1055</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F146" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H146" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I146" s="7">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>1057</v>
-      </c>
       <c r="C147" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D147" t="s">
+        <v>204</v>
+      </c>
+      <c r="F147" t="s">
+        <v>206</v>
+      </c>
+      <c r="H147" t="s">
         <v>205</v>
-      </c>
-      <c r="F147" t="s">
-        <v>207</v>
-      </c>
-      <c r="H147" t="s">
-        <v>206</v>
       </c>
       <c r="I147" s="7">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>1059</v>
-      </c>
       <c r="C148" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D148" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E148" t="s">
+        <v>265</v>
+      </c>
+      <c r="H148" t="s">
         <v>266</v>
-      </c>
-      <c r="H148" t="s">
-        <v>267</v>
       </c>
       <c r="I148" s="7">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>1061</v>
-      </c>
       <c r="C149" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D149" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G149" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H149" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I149" s="7">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>1063</v>
-      </c>
       <c r="C150" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D150" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H150" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I150" s="7">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>1064</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>1065</v>
-      </c>
       <c r="C151" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D151" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H151" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I151" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>1067</v>
-      </c>
       <c r="C152" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D152" t="s">
+        <v>211</v>
+      </c>
+      <c r="F152" t="s">
+        <v>213</v>
+      </c>
+      <c r="H152" t="s">
         <v>212</v>
-      </c>
-      <c r="F152" t="s">
-        <v>214</v>
-      </c>
-      <c r="H152" t="s">
-        <v>213</v>
       </c>
       <c r="I152" s="7">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>1069</v>
-      </c>
       <c r="C153" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D153" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F153" t="s">
+        <v>214</v>
+      </c>
+      <c r="H153" t="s">
         <v>215</v>
-      </c>
-      <c r="H153" t="s">
-        <v>216</v>
       </c>
       <c r="I153" s="7">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>1070</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>1071</v>
-      </c>
       <c r="C154" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D154" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F154" t="s">
+        <v>216</v>
+      </c>
+      <c r="H154" t="s">
         <v>217</v>
-      </c>
-      <c r="H154" t="s">
-        <v>218</v>
       </c>
       <c r="I154" s="7">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>1072</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>1073</v>
-      </c>
       <c r="C155" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D155" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E155" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H155" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I155" s="7">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>1075</v>
-      </c>
       <c r="C156" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D156" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E156" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I156" s="7">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>1077</v>
-      </c>
       <c r="C157" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G157" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H157" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I157" s="7">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>1079</v>
-      </c>
       <c r="C158" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D158" t="s">
+        <v>288</v>
+      </c>
+      <c r="E158" t="s">
         <v>289</v>
       </c>
-      <c r="E158" t="s">
-        <v>290</v>
-      </c>
       <c r="H158" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I158" s="7">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>1081</v>
-      </c>
       <c r="C159" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I159" s="7">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>1083</v>
-      </c>
       <c r="C160" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E160" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I160" s="7">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>1085</v>
-      </c>
       <c r="C161" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D161" t="s">
+        <v>296</v>
+      </c>
+      <c r="E161" t="s">
         <v>297</v>
       </c>
-      <c r="E161" t="s">
-        <v>298</v>
-      </c>
       <c r="H161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I161" s="7">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1087</v>
-      </c>
       <c r="C162" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D162" t="s">
+        <v>299</v>
+      </c>
+      <c r="F162" t="s">
         <v>300</v>
       </c>
-      <c r="F162" t="s">
-        <v>301</v>
-      </c>
       <c r="H162" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I162" s="7">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>1089</v>
-      </c>
       <c r="C163" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D163" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F163" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H163" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I163" s="7">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>1091</v>
-      </c>
       <c r="C164" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D164" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
+        <v>303</v>
+      </c>
+      <c r="H164" t="s">
         <v>304</v>
-      </c>
-      <c r="H164" t="s">
-        <v>305</v>
       </c>
       <c r="I164" s="7">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>1093</v>
-      </c>
       <c r="C165" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D165" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F165" t="s">
+        <v>305</v>
+      </c>
+      <c r="H165" t="s">
         <v>306</v>
-      </c>
-      <c r="H165" t="s">
-        <v>307</v>
       </c>
       <c r="I165" s="7">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>1095</v>
-      </c>
       <c r="C166" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D166" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E166" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H166" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I166" s="7">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>1097</v>
-      </c>
       <c r="C167" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E167" t="s">
+        <v>312</v>
+      </c>
+      <c r="H167" t="s">
         <v>313</v>
-      </c>
-      <c r="H167" t="s">
-        <v>314</v>
       </c>
       <c r="I167" s="7">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>1099</v>
-      </c>
       <c r="C168" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D168" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="H168" t="s">
         <v>315</v>
-      </c>
-      <c r="H168" t="s">
-        <v>316</v>
       </c>
       <c r="I168" s="7">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B169" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>1101</v>
-      </c>
       <c r="C169" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D169" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E169" t="s">
+        <v>316</v>
+      </c>
+      <c r="H169" t="s">
         <v>317</v>
-      </c>
-      <c r="H169" t="s">
-        <v>318</v>
       </c>
       <c r="I169" s="7">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>1103</v>
-      </c>
       <c r="C170" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D170" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H170" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I170" s="7">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>1105</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D171" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E171" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H171" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I171" s="7">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B172" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>1107</v>
-      </c>
       <c r="C172" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D172" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E172" t="s">
+        <v>322</v>
+      </c>
+      <c r="H172" t="s">
         <v>323</v>
-      </c>
-      <c r="H172" t="s">
-        <v>324</v>
       </c>
       <c r="I172" s="7">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B173" s="3" t="s">
         <v>1108</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>1109</v>
-      </c>
       <c r="C173" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D173" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E173" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I173" s="7">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B174" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>1111</v>
-      </c>
       <c r="C174" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D174" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E174" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H174" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I174" s="7">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B175" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>1113</v>
-      </c>
       <c r="C175" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D175" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G175" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H175" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I175" s="7">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>1115</v>
-      </c>
       <c r="C176" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D176" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G176" t="s">
+        <v>329</v>
+      </c>
+      <c r="H176" t="s">
         <v>330</v>
-      </c>
-      <c r="H176" t="s">
-        <v>331</v>
       </c>
       <c r="I176" s="7">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>1117</v>
-      </c>
       <c r="C177" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D177" t="s">
+        <v>331</v>
+      </c>
+      <c r="F177" t="s">
         <v>332</v>
       </c>
-      <c r="F177" t="s">
+      <c r="H177" t="s">
         <v>333</v>
-      </c>
-      <c r="H177" t="s">
-        <v>334</v>
       </c>
       <c r="I177" s="7">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B178" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>1119</v>
-      </c>
       <c r="C178" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D178" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H178" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I178" s="7">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>1120</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>1121</v>
-      </c>
       <c r="C179" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D179" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H179" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I179" s="7">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B180" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>1123</v>
-      </c>
       <c r="C180" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
+        <v>338</v>
+      </c>
+      <c r="H180" t="s">
         <v>339</v>
-      </c>
-      <c r="H180" t="s">
-        <v>340</v>
       </c>
       <c r="I180" s="7">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>1124</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>1125</v>
-      </c>
       <c r="C181" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D181" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E181" t="s">
+        <v>340</v>
+      </c>
+      <c r="H181" t="s">
         <v>341</v>
-      </c>
-      <c r="H181" t="s">
-        <v>342</v>
       </c>
       <c r="I181" s="7">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B182" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>1127</v>
-      </c>
       <c r="C182" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D182" t="s">
+        <v>342</v>
+      </c>
+      <c r="F182" t="s">
         <v>343</v>
       </c>
-      <c r="F182" t="s">
+      <c r="H182" t="s">
         <v>344</v>
-      </c>
-      <c r="H182" t="s">
-        <v>345</v>
       </c>
       <c r="I182" s="7">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B183" s="3" t="s">
         <v>1128</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>1129</v>
-      </c>
       <c r="C183" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D183" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H183" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I183" s="7">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>1131</v>
-      </c>
       <c r="C184" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D184" t="s">
+        <v>361</v>
+      </c>
+      <c r="G184" t="s">
         <v>362</v>
       </c>
-      <c r="G184" t="s">
-        <v>363</v>
-      </c>
       <c r="H184" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I184" s="7">
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B185" s="3" t="s">
         <v>1132</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>1133</v>
-      </c>
       <c r="C185" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D185" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G185" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H185" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I185" s="7">
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>1135</v>
-      </c>
       <c r="C186" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D186" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H186" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I186" s="7">
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>1137</v>
-      </c>
       <c r="C187" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D187" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
+        <v>367</v>
+      </c>
+      <c r="H187" t="s">
         <v>368</v>
-      </c>
-      <c r="H187" t="s">
-        <v>369</v>
       </c>
       <c r="I187" s="7">
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>1139</v>
-      </c>
       <c r="C188" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D188" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F188" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H188" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I188" s="7">
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B189" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>1141</v>
-      </c>
       <c r="C189" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H189" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I189" s="7">
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>1143</v>
-      </c>
       <c r="C190" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F190" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H190" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I190" s="7">
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B191" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>1145</v>
-      </c>
       <c r="C191" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D191" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F191" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I191" s="7">
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B192" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>1147</v>
-      </c>
       <c r="C192" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D192" t="s">
+        <v>382</v>
+      </c>
+      <c r="G192" t="s">
         <v>383</v>
       </c>
-      <c r="G192" t="s">
-        <v>384</v>
-      </c>
       <c r="H192" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I192" s="7">
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B193" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>1149</v>
-      </c>
       <c r="C193" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D193" t="s">
         <v>52</v>
       </c>
       <c r="E193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H193" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I193" s="7">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>1151</v>
-      </c>
       <c r="C194" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D194" t="s">
         <v>52</v>
       </c>
       <c r="E194" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H194" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I194" s="7">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>1153</v>
-      </c>
       <c r="C195" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D195" t="s">
         <v>52</v>
       </c>
       <c r="E195" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H195" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I195" s="7">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>1155</v>
-      </c>
       <c r="C196" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D196" t="s">
         <v>52</v>
       </c>
       <c r="E196" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H196" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I196" s="7">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="C197" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D197" t="s">
         <v>52</v>
       </c>
       <c r="E197" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H197" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I197" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B198" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>1159</v>
-      </c>
       <c r="C198" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D198" t="s">
+        <v>146</v>
+      </c>
+      <c r="E198" t="s">
         <v>147</v>
       </c>
-      <c r="E198" t="s">
-        <v>148</v>
-      </c>
       <c r="H198" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I198" s="7">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B199" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>1161</v>
-      </c>
       <c r="C199" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D199" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I199" s="7">
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>1163</v>
-      </c>
       <c r="C200" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D200" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E200" t="s">
+        <v>150</v>
+      </c>
+      <c r="H200" t="s">
         <v>151</v>
-      </c>
-      <c r="H200" t="s">
-        <v>152</v>
       </c>
       <c r="I200" s="7">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B201" s="3" t="s">
         <v>1164</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>1165</v>
-      </c>
       <c r="C201" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D201" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I201" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B202" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>1167</v>
-      </c>
       <c r="C202" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D202" t="s">
+        <v>155</v>
+      </c>
+      <c r="E202" t="s">
         <v>156</v>
       </c>
-      <c r="E202" t="s">
-        <v>157</v>
-      </c>
       <c r="H202" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I202" s="7">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B203" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>1169</v>
-      </c>
       <c r="C203" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I203" s="7">
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B204" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>1171</v>
-      </c>
       <c r="C204" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D204" t="s">
+        <v>159</v>
+      </c>
+      <c r="E204" t="s">
         <v>160</v>
       </c>
-      <c r="E204" t="s">
+      <c r="H204" t="s">
         <v>161</v>
-      </c>
-      <c r="H204" t="s">
-        <v>162</v>
       </c>
       <c r="I204" s="7">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>1173</v>
-      </c>
       <c r="C205" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D205" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E205" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I205" s="7">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B206" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>1175</v>
-      </c>
       <c r="C206" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I206" s="7">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>1176</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>1177</v>
-      </c>
       <c r="C207" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D207" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E207" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H207" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I207" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B208" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>1179</v>
-      </c>
       <c r="C208" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D208" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E208" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H208" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I208" s="7">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B209" s="3" t="s">
         <v>1180</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>1181</v>
-      </c>
       <c r="C209" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D209" t="s">
+        <v>171</v>
+      </c>
+      <c r="E209" t="s">
         <v>172</v>
       </c>
-      <c r="E209" t="s">
-        <v>173</v>
-      </c>
       <c r="H209" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I209" s="7">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B210" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>1183</v>
-      </c>
       <c r="C210" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D210" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E210" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H210" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I210" s="7">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>1184</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>1185</v>
-      </c>
       <c r="C211" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D211" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E211" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H211" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I211" s="7">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>1187</v>
-      </c>
       <c r="C212" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D212" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E212" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I212" s="7">
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B213" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>1189</v>
-      </c>
       <c r="C213" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D213" t="s">
+        <v>180</v>
+      </c>
+      <c r="E213" t="s">
         <v>181</v>
       </c>
-      <c r="E213" t="s">
-        <v>182</v>
-      </c>
       <c r="H213" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I213" s="7">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B214" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>1191</v>
-      </c>
       <c r="C214" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D214" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E214" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H214" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I214" s="7">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>1193</v>
-      </c>
       <c r="C215" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D215" t="s">
+        <v>187</v>
+      </c>
+      <c r="E215" t="s">
         <v>188</v>
       </c>
-      <c r="E215" t="s">
-        <v>189</v>
-      </c>
       <c r="H215" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I215" s="7">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B216" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>1195</v>
-      </c>
       <c r="C216" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D216" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E216" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H216" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I216" s="7">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B217" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>1197</v>
-      </c>
       <c r="C217" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D217" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E217" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H217" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I217" s="7">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B218" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>1199</v>
-      </c>
       <c r="C218" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D218" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E218" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H218" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I218" s="7">
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B219" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>1201</v>
-      </c>
       <c r="C219" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D219" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E219" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H219" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I219" s="7">
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>1203</v>
-      </c>
       <c r="C220" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D220" t="s">
+        <v>197</v>
+      </c>
+      <c r="E220" t="s">
+        <v>199</v>
+      </c>
+      <c r="H220" t="s">
         <v>198</v>
-      </c>
-      <c r="E220" t="s">
-        <v>200</v>
-      </c>
-      <c r="H220" t="s">
-        <v>199</v>
       </c>
       <c r="I220" s="7">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>1205</v>
-      </c>
       <c r="C221" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D221" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E221" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H221" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I221" s="7">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>1207</v>
-      </c>
       <c r="C222" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D222" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E222" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H222" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I222" s="7">
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B223" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>1209</v>
-      </c>
       <c r="C223" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D223" t="s">
+        <v>226</v>
+      </c>
+      <c r="E223" t="s">
+        <v>228</v>
+      </c>
+      <c r="H223" t="s">
         <v>227</v>
-      </c>
-      <c r="E223" t="s">
-        <v>229</v>
-      </c>
-      <c r="H223" t="s">
-        <v>228</v>
       </c>
       <c r="I223" s="7">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>1211</v>
-      </c>
       <c r="C224" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E224" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I224" s="7">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B225" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>1213</v>
-      </c>
       <c r="C225" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I225" s="7">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>1215</v>
-      </c>
       <c r="C226" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E226" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H226" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I226" s="7">
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B227" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>1217</v>
-      </c>
       <c r="C227" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D227" t="s">
+        <v>236</v>
+      </c>
+      <c r="E227" t="s">
         <v>237</v>
       </c>
-      <c r="E227" t="s">
-        <v>238</v>
-      </c>
       <c r="H227" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I227" s="7">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>1219</v>
-      </c>
       <c r="C228" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D228" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E228" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I228" s="7">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>1221</v>
-      </c>
       <c r="C229" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D229" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H229" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I229" s="7">
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>1223</v>
-      </c>
       <c r="C230" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D230" t="s">
+        <v>242</v>
+      </c>
+      <c r="E230" t="s">
+        <v>244</v>
+      </c>
+      <c r="H230" t="s">
         <v>243</v>
-      </c>
-      <c r="E230" t="s">
-        <v>245</v>
-      </c>
-      <c r="H230" t="s">
-        <v>244</v>
       </c>
       <c r="I230" s="7">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>1225</v>
-      </c>
       <c r="C231" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D231" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E231" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H231" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I231" s="7">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>1226</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>1227</v>
-      </c>
       <c r="C232" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E232" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H232" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I232" s="7">
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>1229</v>
-      </c>
       <c r="C233" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D233" t="s">
+        <v>249</v>
+      </c>
+      <c r="E233" t="s">
+        <v>251</v>
+      </c>
+      <c r="H233" t="s">
         <v>250</v>
-      </c>
-      <c r="E233" t="s">
-        <v>252</v>
-      </c>
-      <c r="H233" t="s">
-        <v>251</v>
       </c>
       <c r="I233" s="7">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B234" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>1231</v>
-      </c>
       <c r="C234" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E234" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H234" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I234" s="7">
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B235" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>1233</v>
-      </c>
       <c r="C235" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D235" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E235" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H235" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I235" s="7">
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B236" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>1235</v>
-      </c>
       <c r="C236" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D236" t="s">
+        <v>257</v>
+      </c>
+      <c r="E236" t="s">
+        <v>256</v>
+      </c>
+      <c r="H236" t="s">
         <v>258</v>
-      </c>
-      <c r="E236" t="s">
-        <v>257</v>
-      </c>
-      <c r="H236" t="s">
-        <v>259</v>
       </c>
       <c r="I236" s="7">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>1236</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>1237</v>
-      </c>
       <c r="C237" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D237" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E237" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H237" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I237" s="7">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>1238</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>1239</v>
-      </c>
       <c r="C238" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D238" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E238" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H238" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I238" s="7">
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B239" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>1241</v>
-      </c>
       <c r="C239" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D239" t="s">
+        <v>272</v>
+      </c>
+      <c r="E239" t="s">
         <v>273</v>
       </c>
-      <c r="E239" t="s">
-        <v>274</v>
-      </c>
       <c r="H239" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I239" s="7">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B240" s="3" t="s">
         <v>1242</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>1243</v>
-      </c>
       <c r="C240" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D240" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H240" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I240" s="7">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B241" s="3" t="s">
         <v>1244</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>1245</v>
-      </c>
       <c r="C241" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D241" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E241" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H241" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I241" s="7">
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B242" s="3" t="s">
         <v>1246</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>1247</v>
-      </c>
       <c r="C242" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D242" t="s">
+        <v>278</v>
+      </c>
+      <c r="E242" t="s">
+        <v>280</v>
+      </c>
+      <c r="H242" t="s">
         <v>279</v>
-      </c>
-      <c r="E242" t="s">
-        <v>281</v>
-      </c>
-      <c r="H242" t="s">
-        <v>280</v>
       </c>
       <c r="I242" s="7">
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>1248</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>1249</v>
-      </c>
       <c r="C243" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H243" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I243" s="7">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B244" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>1251</v>
-      </c>
       <c r="C244" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D244" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E244" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I244" s="7">
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B245" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>1253</v>
-      </c>
       <c r="C245" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D245" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E245" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H245" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I245" s="7">
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
     </row>

--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -3867,7 +3867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3885,11 +3885,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4311,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119:XFD119"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4357,187 +4352,187 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>775</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <v>8</v>
       </c>
     </row>
@@ -4564,1245 +4559,1245 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="13">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="13">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="13">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="13">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="13">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="13">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="13">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="13">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H33" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="13">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>830</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="13">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="13">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="13">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+    <row r="39" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="13">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+    <row r="40" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="13">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="13">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="13">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="13">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="13">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="13">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="13">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="12" t="s">
         <v>856</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="13">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="12" t="s">
         <v>858</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I48" s="13">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
         <v>859</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="12" t="s">
         <v>860</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="F49" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="H49" s="16" t="s">
+      <c r="H49" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="I49" s="16">
+      <c r="I49" s="13">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="13">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="12" t="s">
         <v>864</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="12" t="s">
         <v>866</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="13">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="12" t="s">
         <v>868</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="13">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="12" t="s">
         <v>870</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="13">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="12" t="s">
         <v>872</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="13">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="12" t="s">
         <v>876</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="13">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="13">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="13">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="12" t="s">
         <v>882</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="13">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="13">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="12" t="s">
         <v>888</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="13">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="12" t="s">
         <v>890</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="13" t="s">
         <v>471</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="13">
         <v>63</v>
       </c>
     </row>
@@ -5898,72 +5893,72 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+    <row r="69" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="12" t="s">
         <v>900</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H69" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="16">
+      <c r="I69" s="13">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
+    <row r="70" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="12" t="s">
         <v>902</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="I70" s="16">
+      <c r="I70" s="13">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="12" t="s">
         <v>904</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F71" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H71" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="I71" s="16">
+      <c r="I71" s="13">
         <v>70</v>
       </c>
     </row>
@@ -5990,26 +5985,26 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+    <row r="73" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="12" t="s">
         <v>908</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H73" s="16" t="s">
+      <c r="H73" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I73" s="16">
+      <c r="I73" s="13">
         <v>72</v>
       </c>
     </row>
@@ -6036,26 +6031,26 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+    <row r="75" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="12" t="s">
         <v>912</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I75" s="16">
+      <c r="I75" s="13">
         <v>74</v>
       </c>
     </row>
@@ -6082,601 +6077,601 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="77" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="12" t="s">
         <v>916</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H77" s="16" t="s">
+      <c r="H77" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="16">
+      <c r="I77" s="13">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="12" t="s">
         <v>918</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I78" s="16">
+      <c r="I78" s="13">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="79" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="12" t="s">
         <v>920</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I79" s="16">
+      <c r="I79" s="13">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="12" t="s">
         <v>922</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H80" s="16" t="s">
+      <c r="H80" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I80" s="16">
+      <c r="I80" s="13">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="12" t="s">
         <v>924</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I81" s="16">
+      <c r="I81" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="12" t="s">
         <v>926</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="16" t="s">
+      <c r="F82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H82" s="16" t="s">
+      <c r="H82" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="13">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14" t="s">
+    <row r="83" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="12" t="s">
         <v>928</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F83" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I83" s="16">
+      <c r="I83" s="13">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="12" t="s">
         <v>930</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G84" s="16" t="s">
+      <c r="G84" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I84" s="16">
+      <c r="I84" s="13">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14" t="s">
+    <row r="85" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="12" t="s">
         <v>932</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F85" s="16" t="s">
+      <c r="F85" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I85" s="16">
+      <c r="I85" s="13">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14" t="s">
+    <row r="86" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="12" t="s">
         <v>934</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H86" s="16" t="s">
+      <c r="H86" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I86" s="16">
+      <c r="I86" s="13">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="11" t="s">
         <v>935</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="12" t="s">
         <v>936</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="D87" s="16" t="s">
+      <c r="D87" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F87" s="16" t="s">
+      <c r="F87" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="16" t="s">
+      <c r="H87" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I87" s="16">
+      <c r="I87" s="13">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
+    <row r="88" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="12" t="s">
         <v>938</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="D88" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="16" t="s">
+      <c r="F88" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H88" s="16" t="s">
+      <c r="H88" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I88" s="16">
+      <c r="I88" s="13">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14" t="s">
+    <row r="89" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="12" t="s">
         <v>940</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F89" s="16" t="s">
+      <c r="F89" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H89" s="16" t="s">
+      <c r="H89" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I89" s="16">
+      <c r="I89" s="13">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="12" t="s">
         <v>942</v>
       </c>
-      <c r="C90" s="15" t="s">
+      <c r="C90" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="D90" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H90" s="16" t="s">
+      <c r="H90" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="16">
+      <c r="I90" s="13">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14" t="s">
+    <row r="91" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="B91" s="12" t="s">
         <v>944</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="16">
+      <c r="I91" s="13">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14" t="s">
+    <row r="92" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H92" s="16" t="s">
+      <c r="H92" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I92" s="16">
+      <c r="I92" s="13">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
+    <row r="93" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="12" t="s">
         <v>948</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I93" s="16">
+      <c r="I93" s="13">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14" t="s">
+    <row r="94" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="12" t="s">
         <v>950</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="D94" s="16" t="s">
+      <c r="D94" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H94" s="16" t="s">
+      <c r="H94" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I94" s="16">
+      <c r="I94" s="13">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="95" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="12" t="s">
         <v>952</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="D95" s="16" t="s">
+      <c r="D95" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H95" s="16" t="s">
+      <c r="H95" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="I95" s="16">
+      <c r="I95" s="13">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
+    <row r="96" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="12" t="s">
         <v>954</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="D96" s="16" t="s">
+      <c r="D96" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I96" s="16">
+      <c r="I96" s="13">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="14" t="s">
+    <row r="97" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="12" t="s">
         <v>956</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="D97" s="16" t="s">
+      <c r="D97" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I97" s="16">
+      <c r="I97" s="13">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>957</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="C98" s="15" t="s">
+      <c r="C98" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="13">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="12" t="s">
         <v>960</v>
       </c>
-      <c r="C99" s="15" t="s">
+      <c r="C99" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="D99" s="16" t="s">
+      <c r="D99" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="13">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="14" t="s">
+    <row r="100" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="12" t="s">
         <v>962</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="D100" s="16" t="s">
+      <c r="D100" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I100" s="16">
+      <c r="I100" s="13">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
+    <row r="101" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="12" t="s">
         <v>964</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="D101" s="16" t="s">
+      <c r="D101" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H101" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I101" s="16">
+      <c r="I101" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+    <row r="102" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="12" t="s">
         <v>966</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G102" s="16" t="s">
+      <c r="G102" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H102" s="16" t="s">
+      <c r="H102" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I102" s="13">
         <v>101</v>
       </c>
     </row>
@@ -6703,72 +6698,72 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="14" t="s">
+    <row r="104" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="12" t="s">
         <v>970</v>
       </c>
-      <c r="C104" s="15" t="s">
+      <c r="C104" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F104" s="16" t="s">
+      <c r="F104" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="16" t="s">
+      <c r="H104" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="13">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
+    <row r="105" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="12" t="s">
         <v>972</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="D105" s="16" t="s">
+      <c r="D105" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F105" s="16" t="s">
+      <c r="F105" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="16" t="s">
+      <c r="H105" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I105" s="16">
+      <c r="I105" s="13">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="14" t="s">
+    <row r="106" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="12" t="s">
         <v>974</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="D106" s="16" t="s">
+      <c r="D106" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H106" s="16" t="s">
+      <c r="H106" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="I106" s="16">
+      <c r="I106" s="13">
         <v>105</v>
       </c>
     </row>
@@ -6795,26 +6790,26 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="14" t="s">
+    <row r="108" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="12" t="s">
         <v>978</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D108" s="16" t="s">
+      <c r="D108" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F108" s="16" t="s">
+      <c r="F108" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="H108" s="16" t="s">
+      <c r="H108" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I108" s="16">
+      <c r="I108" s="13">
         <v>107</v>
       </c>
     </row>
@@ -6841,26 +6836,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="14" t="s">
+    <row r="110" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="12" t="s">
         <v>982</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F110" s="16" t="s">
+      <c r="F110" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H110" s="16" t="s">
+      <c r="H110" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I110" s="16">
+      <c r="I110" s="13">
         <v>109</v>
       </c>
     </row>
@@ -6887,49 +6882,49 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
+    <row r="112" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
         <v>985</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="12" t="s">
         <v>986</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C112" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="D112" s="16" t="s">
+      <c r="D112" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F112" s="16" t="s">
+      <c r="F112" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I112" s="16">
+      <c r="I112" s="13">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="14" t="s">
+    <row r="113" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="B113" s="12" t="s">
         <v>988</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C113" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="D113" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F113" s="16" t="s">
+      <c r="F113" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H113" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I113" s="16">
+      <c r="I113" s="13">
         <v>112</v>
       </c>
     </row>
@@ -7002,164 +6997,164 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="14" t="s">
+    <row r="117" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="12" t="s">
         <v>996</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C117" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="D117" s="16" t="s">
+      <c r="D117" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G117" s="16" t="s">
+      <c r="G117" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I117" s="16">
+      <c r="I117" s="13">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="14" t="s">
+    <row r="118" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="B118" s="12" t="s">
         <v>998</v>
       </c>
-      <c r="C118" s="15" t="s">
+      <c r="C118" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="D118" s="16" t="s">
+      <c r="D118" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G118" s="16" t="s">
+      <c r="G118" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I118" s="16">
+      <c r="I118" s="13">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="14" t="s">
+    <row r="119" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="12" t="s">
         <v>1000</v>
       </c>
-      <c r="C119" s="15" t="s">
+      <c r="C119" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="D119" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G119" s="16" t="s">
+      <c r="G119" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I119" s="16">
+      <c r="I119" s="13">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+    <row r="120" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="12" t="s">
         <v>1002</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I120" s="7">
+      <c r="I120" s="13">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="121" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="12" t="s">
         <v>1004</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I121" s="7">
+      <c r="I121" s="13">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+    <row r="122" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="12" t="s">
         <v>1006</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I122" s="7">
+      <c r="I122" s="13">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+    <row r="123" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="12" t="s">
         <v>1008</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I123" s="7">
+      <c r="I123" s="13">
         <v>122</v>
       </c>
     </row>
@@ -7186,256 +7181,256 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="12" t="s">
         <v>1012</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I125" s="7">
+      <c r="I125" s="13">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="12" t="s">
         <v>1014</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I126" s="7">
+      <c r="I126" s="13">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="12" t="s">
         <v>1016</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I127" s="7">
+      <c r="I127" s="13">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="12" t="s">
         <v>1018</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I128" s="7">
+      <c r="I128" s="13">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="12" t="s">
         <v>1020</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I129" s="7">
+      <c r="I129" s="13">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="12" t="s">
         <v>1022</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I130" s="7">
+      <c r="I130" s="13">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="12" t="s">
         <v>1024</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I131" s="13">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="12" t="s">
         <v>1026</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I132" s="7">
+      <c r="I132" s="13">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="12" t="s">
         <v>1028</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I133" s="7">
+      <c r="I133" s="13">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="12" t="s">
         <v>1030</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I134" s="7">
+      <c r="I134" s="13">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="12" t="s">
         <v>1032</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I135" s="7">
+      <c r="I135" s="13">
         <v>134</v>
       </c>
     </row>

--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -4296,7 +4296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4306,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8745,118 +8745,118 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+    <row r="193" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="12" t="s">
         <v>1148</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H193" t="s">
+      <c r="H193" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I193" s="7">
+      <c r="I193" s="13">
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+    <row r="194" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="12" t="s">
         <v>1150</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H194" t="s">
+      <c r="H194" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I194" s="7">
+      <c r="I194" s="13">
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+    <row r="195" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="12" t="s">
         <v>1152</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H195" t="s">
+      <c r="H195" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I195" s="7">
+      <c r="I195" s="13">
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+    <row r="196" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="12" t="s">
         <v>1154</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H196" t="s">
+      <c r="H196" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I196" s="7">
+      <c r="I196" s="13">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+    <row r="197" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="12" t="s">
         <v>1156</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H197" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I197" s="7">
+      <c r="I197" s="13">
         <v>196</v>
       </c>
     </row>
@@ -8906,49 +8906,49 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+    <row r="200" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="12" t="s">
         <v>1162</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H200" t="s">
+      <c r="H200" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I200" s="7">
+      <c r="I200" s="13">
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+    <row r="201" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="12" t="s">
         <v>1164</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H201" t="s">
+      <c r="H201" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I201" s="7">
+      <c r="I201" s="13">
         <v>200</v>
       </c>
     </row>
@@ -8998,210 +8998,210 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+    <row r="204" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="12" t="s">
         <v>1170</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H204" t="s">
+      <c r="H204" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I204" s="7">
+      <c r="I204" s="13">
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+    <row r="205" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="12" t="s">
         <v>1172</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H205" t="s">
+      <c r="H205" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I205" s="7">
+      <c r="I205" s="13">
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+    <row r="206" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="12" t="s">
         <v>1174</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H206" t="s">
+      <c r="H206" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I206" s="7">
+      <c r="I206" s="13">
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+    <row r="207" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="11" t="s">
         <v>1175</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="12" t="s">
         <v>1176</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="12" t="s">
         <v>723</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H207" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I207" s="7">
+      <c r="I207" s="13">
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+    <row r="208" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="12" t="s">
         <v>1178</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H208" t="s">
+      <c r="H208" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I208" s="7">
+      <c r="I208" s="13">
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+    <row r="209" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="12" t="s">
         <v>1180</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H209" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I209" s="7">
+      <c r="I209" s="13">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+    <row r="210" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="11" t="s">
         <v>1181</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="12" t="s">
         <v>1182</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="H210" t="s">
+      <c r="H210" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I210" s="7">
+      <c r="I210" s="13">
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+    <row r="211" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="12" t="s">
         <v>1184</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H211" t="s">
+      <c r="H211" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I211" s="7">
+      <c r="I211" s="13">
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+    <row r="212" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="12" t="s">
         <v>1186</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H212" t="s">
+      <c r="H212" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I212" s="7">
+      <c r="I212" s="13">
         <v>211</v>
       </c>
     </row>

--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -4296,7 +4296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4306,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="A200" sqref="A200:XFD200"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233:XFD233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8860,49 +8860,49 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+    <row r="198" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="12" t="s">
         <v>1158</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H198" t="s">
+      <c r="H198" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I198" s="7">
+      <c r="I198" s="13">
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+    <row r="199" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="12" t="s">
         <v>1160</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H199" t="s">
+      <c r="H199" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I199" s="7">
+      <c r="I199" s="13">
         <v>198</v>
       </c>
     </row>
@@ -9366,72 +9366,72 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+    <row r="220" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="12" t="s">
         <v>1202</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H220" t="s">
+      <c r="H220" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I220" s="7">
+      <c r="I220" s="13">
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+    <row r="221" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="12" t="s">
         <v>1204</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H221" t="s">
+      <c r="H221" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I221" s="7">
+      <c r="I221" s="13">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+    <row r="222" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="12" t="s">
         <v>1206</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H222" t="s">
+      <c r="H222" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="I222" s="7">
+      <c r="I222" s="13">
         <v>221</v>
       </c>
     </row>
@@ -9527,72 +9527,72 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+    <row r="227" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="12" t="s">
         <v>1216</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="H227" t="s">
+      <c r="H227" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="I227" s="7">
+      <c r="I227" s="13">
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+    <row r="228" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="12" t="s">
         <v>1218</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H228" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="I228" s="7">
+      <c r="I228" s="13">
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+    <row r="229" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="12" t="s">
         <v>1220</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="H229" t="s">
+      <c r="H229" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I229" s="7">
+      <c r="I229" s="13">
         <v>228</v>
       </c>
     </row>
@@ -9665,49 +9665,49 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+    <row r="233" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="12" t="s">
         <v>1228</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H233" t="s">
+      <c r="H233" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="I233" s="7">
+      <c r="I233" s="13">
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+    <row r="234" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="12" t="s">
         <v>1230</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H234" t="s">
+      <c r="H234" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="I234" s="7">
+      <c r="I234" s="13">
         <v>233</v>
       </c>
     </row>
@@ -9734,72 +9734,72 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+    <row r="236" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="12" t="s">
         <v>1234</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="H236" t="s">
+      <c r="H236" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="I236" s="7">
+      <c r="I236" s="13">
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+    <row r="237" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="12" t="s">
         <v>1236</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="H237" t="s">
+      <c r="H237" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="I237" s="7">
+      <c r="I237" s="13">
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+    <row r="238" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="12" t="s">
         <v>1238</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H238" t="s">
+      <c r="H238" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="I238" s="7">
+      <c r="I238" s="13">
         <v>237</v>
       </c>
     </row>

--- a/Videos (1).xlsx
+++ b/Videos (1).xlsx
@@ -4296,7 +4296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4306,8 +4306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A233" sqref="A233:XFD233"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D248" sqref="D248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8952,49 +8952,49 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+    <row r="202" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="12" t="s">
         <v>1166</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H202" t="s">
+      <c r="H202" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I202" s="7">
+      <c r="I202" s="13">
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+    <row r="203" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="12" t="s">
         <v>1168</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H203" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="I203" s="7">
+      <c r="I203" s="13">
         <v>202</v>
       </c>
     </row>
@@ -9205,141 +9205,141 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+    <row r="213" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="12" t="s">
         <v>1188</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H213" t="s">
+      <c r="H213" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="I213" s="7">
+      <c r="I213" s="13">
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+    <row r="214" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="12" t="s">
         <v>1190</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="H214" t="s">
+      <c r="H214" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I214" s="7">
+      <c r="I214" s="13">
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+    <row r="215" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="11" t="s">
         <v>1191</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="12" t="s">
         <v>1192</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="H215" t="s">
+      <c r="H215" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="I215" s="7">
+      <c r="I215" s="13">
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+    <row r="216" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="12" t="s">
         <v>1194</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="12" t="s">
         <v>732</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H216" t="s">
+      <c r="H216" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I216" s="7">
+      <c r="I216" s="13">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+    <row r="217" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="12" t="s">
         <v>1196</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H217" t="s">
+      <c r="H217" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="I217" s="7">
+      <c r="I217" s="13">
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+    <row r="218" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="11" t="s">
         <v>1197</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="12" t="s">
         <v>1198</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="H218" t="s">
+      <c r="H218" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I218" s="7">
+      <c r="I218" s="13">
         <v>217</v>
       </c>
     </row>
@@ -9435,95 +9435,95 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+    <row r="223" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="12" t="s">
         <v>1208</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H223" t="s">
+      <c r="H223" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I223" s="7">
+      <c r="I223" s="13">
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+    <row r="224" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="12" t="s">
         <v>1210</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H224" t="s">
+      <c r="H224" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I224" s="7">
+      <c r="I224" s="13">
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+    <row r="225" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="12" t="s">
         <v>1212</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="H225" t="s">
+      <c r="H225" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="I225" s="7">
+      <c r="I225" s="13">
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+    <row r="226" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="12" t="s">
         <v>1214</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="H226" t="s">
+      <c r="H226" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="I226" s="7">
+      <c r="I226" s="13">
         <v>225</v>
       </c>
     </row>
@@ -9596,72 +9596,72 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+    <row r="230" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="12" t="s">
         <v>1222</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H230" t="s">
+      <c r="H230" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="I230" s="7">
+      <c r="I230" s="13">
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+    <row r="231" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="11" t="s">
         <v>1223</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="12" t="s">
         <v>1224</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H231" t="s">
+      <c r="H231" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="I231" s="7">
+      <c r="I231" s="13">
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+    <row r="232" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
         <v>1225</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="12" t="s">
         <v>1226</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H232" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="I232" s="7">
+      <c r="I232" s="13">
         <v>231</v>
       </c>
     </row>
@@ -9711,26 +9711,26 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+    <row r="235" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="11" t="s">
         <v>1231</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="12" t="s">
         <v>1232</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H235" t="s">
+      <c r="H235" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="I235" s="7">
+      <c r="I235" s="13">
         <v>234</v>
       </c>
     </row>
@@ -9803,72 +9803,72 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+    <row r="239" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="11" t="s">
         <v>1239</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="12" t="s">
         <v>1240</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="H239" t="s">
+      <c r="H239" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="I239" s="7">
+      <c r="I239" s="13">
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+    <row r="240" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="12" t="s">
         <v>1242</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="H240" t="s">
+      <c r="H240" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I240" s="7">
+      <c r="I240" s="13">
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+    <row r="241" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="11" t="s">
         <v>1243</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="12" t="s">
         <v>1244</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="H241" t="s">
+      <c r="H241" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="I241" s="7">
+      <c r="I241" s="13">
         <v>240</v>
       </c>
     </row>
@@ -9895,49 +9895,49 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+    <row r="243" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="11" t="s">
         <v>1247</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="12" t="s">
         <v>1248</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H243" t="s">
+      <c r="H243" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="I243" s="7">
+      <c r="I243" s="13">
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+    <row r="244" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="12" t="s">
         <v>1250</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="H244" t="s">
+      <c r="H244" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I244" s="7">
+      <c r="I244" s="13">
         <v>243</v>
       </c>
     </row>
